--- a/respuestas/registro/registro.xlsx
+++ b/respuestas/registro/registro.xlsx
@@ -1,12 +1,12 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="8940" yWindow="2985" windowWidth="28800" windowHeight="11385" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Registros" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Registros" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -448,7 +448,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -459,7 +459,7 @@
       <selection activeCell="P8" sqref="P8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" outlineLevelCol="0"/>
   <cols>
     <col width="21.140625" customWidth="1" min="4" max="4"/>
     <col width="19.5703125" customWidth="1" min="5" max="5"/>
@@ -752,26 +752,276 @@
       <c r="A6" t="n">
         <v>5</v>
       </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Jhonatan</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ruiz </t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1144138921</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>2022-02-16</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Soltero</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>asdasd</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>asdasd</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>6</v>
       </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Jhonatan</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ruiz </t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1144138921</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>2022-02-16</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Soltero</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>asdasd</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>asdasd</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>7</v>
       </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Jhonatan</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ruiz </t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1144138921</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>2022-02-16</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Soltero</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>asdasd</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>asdasd</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
       <c r="P8" s="1" t="n"/>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>8</v>
       </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Jhonatan asdasd</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ruiz </t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1144138921</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>2022-02-16</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Soltero</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>asdasd</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>asdasd</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>9</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>asdas</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>asdasd</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>asdasdasd</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>2022-02-16</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Soltero</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>asdasd</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>asdasd</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
       </c>
     </row>
     <row r="11">
@@ -5733,7 +5983,7 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0"/>
   <tableParts count="1">
-    <tablePart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+    <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
 </file>
--- a/respuestas/registro/registro.xlsx
+++ b/respuestas/registro/registro.xlsx
@@ -459,7 +459,7 @@
       <selection activeCell="P8" sqref="P8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col width="21.140625" customWidth="1" min="4" max="4"/>
     <col width="19.5703125" customWidth="1" min="5" max="5"/>
@@ -1028,25 +1028,275 @@
       <c r="A11" t="n">
         <v>10</v>
       </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>sdas</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>asdasd</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>asdasd</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>2022-02-09</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Soltero</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>asdasd</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>asdasdasd</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>11</v>
       </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>sdas</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>asdasd</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>asdasd</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>2022-02-09</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Soltero</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>asdasd</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>asdasdasd</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>12</v>
       </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>sdas</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>asdasd</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>asdasd</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>2022-02-09</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Soltero</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>asdasd</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>asdasdasd</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>13</v>
       </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>asdasd</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>asdasd</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>asdasdasd</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>2022-02-10</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Casado</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>asdasd</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>asdasd</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>14</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>asdasd</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>asdasd</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>asdasdasd</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>2022-02-10</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Casado</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>asdasd</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>asdasd</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
       </c>
     </row>
     <row r="16">

--- a/respuestas/registro/registro.xlsx
+++ b/respuestas/registro/registro.xlsx
@@ -1303,6 +1303,56 @@
       <c r="A16" t="n">
         <v>15</v>
       </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>asdas</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>dasda</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>sdasdasd</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>2022-02-09</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Casado</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>asdasd</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>asdasd</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
